--- a/TestData/0_no_loc/data/TestComposeKey.xlsx
+++ b/TestData/0_no_loc/data/TestComposeKey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ExportExcel\TestData\0_no_loc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\TestData\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE8F00-8036-4762-AF45-5D33BD274245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFF18A6-1CF2-41E4-A9A0-172BF7786181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,6 +105,27 @@
   </si>
   <si>
     <t>7|8|9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32
+Enum[EItemFlag]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可堆叠;可删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -141,12 +162,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,7 +191,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,12 +201,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 5" xfId="1" xr:uid="{DDF3EF58-561A-463E-AD46-81209F5F99BA}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -224,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -521,10 +579,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,23 +593,27 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -561,22 +626,28 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -589,8 +660,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -603,8 +677,11 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -616,24 +693,43 @@
       </c>
       <c r="D6" t="s">
         <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1 A3:XFD3">
-    <cfRule type="expression" dxfId="3" priority="15">
+  <conditionalFormatting sqref="A1:D1 A3:D3 F3:XFD3 F1:XFD1">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>公式单元格=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576 D2">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="紫色">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="紫色">
       <formula>NOT(ISERROR(SEARCH("紫色",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="灰色">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="灰色">
       <formula>NOT(ISERROR(SEARCH("灰色",C1)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="绿色">
+      <formula>NOT(ISERROR(SEARCH("绿色",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E4 A1:E1 A3:E3">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>公式单元格=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576 A1:E1 A3:E3">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="紫色">
+      <formula>NOT(ISERROR(SEARCH("紫色",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="灰色">
+      <formula>NOT(ISERROR(SEARCH("灰色",A1)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="绿色">
-      <formula>NOT(ISERROR(SEARCH("绿色",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("绿色",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
